--- a/app/modules/common/FEAT/F16/download_input.xlsx
+++ b/app/modules/common/FEAT/F16/download_input.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>life time</t>
-  </si>
-  <si>
-    <t>potential restriction (MW_th)</t>
   </si>
   <si>
     <t>renewable factor</t>
@@ -520,13 +517,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,19 +551,16 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>1.03</v>
@@ -589,19 +583,16 @@
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>0.85</v>
@@ -622,21 +613,18 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="D4">
         <v>0.87</v>
@@ -657,21 +645,18 @@
         <v>20</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D5">
         <v>0.85</v>
@@ -692,21 +677,18 @@
         <v>20</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="D6">
         <v>0.98</v>
@@ -727,18 +709,18 @@
         <v>20</v>
       </c>
       <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>300</v>
       </c>
       <c r="D7">
         <v>0.99</v>
@@ -759,21 +741,18 @@
         <v>20</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -794,21 +773,18 @@
         <v>25</v>
       </c>
       <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -829,21 +805,18 @@
         <v>25</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -864,21 +837,18 @@
         <v>25</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D11">
         <v>1.7</v>
@@ -893,27 +863,24 @@
         <v>2000</v>
       </c>
       <c r="H11">
-        <v>0.89</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="I11">
         <v>25</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="D12">
         <v>0.58</v>
@@ -934,21 +901,18 @@
         <v>15</v>
       </c>
       <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D13">
         <v>0.64</v>
@@ -969,21 +933,18 @@
         <v>30</v>
       </c>
       <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="D14">
         <v>0.62</v>
@@ -1004,21 +965,18 @@
         <v>20</v>
       </c>
       <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="D15">
         <v>0.64</v>
@@ -1039,21 +997,18 @@
         <v>25</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="D16">
         <v>0.62</v>
@@ -1074,21 +1029,18 @@
         <v>20</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="D17">
         <v>0.62</v>
@@ -1109,21 +1061,18 @@
         <v>20</v>
       </c>
       <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D18">
         <v>0.45</v>
@@ -1146,19 +1095,16 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="D19">
         <v>0.45</v>
@@ -1179,21 +1125,18 @@
         <v>25</v>
       </c>
       <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="D20">
         <v>0.35</v>
@@ -1216,19 +1159,16 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1150</v>
       </c>
       <c r="D21">
         <v>0.45</v>
@@ -1249,9 +1189,6 @@
         <v>25</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
         <v>0</v>
       </c>
     </row>
@@ -1270,13 +1207,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1284,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1298,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1312,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>62</v>
@@ -1326,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>47</v>
@@ -1340,7 +1277,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -1354,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -1368,7 +1305,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -1382,7 +1319,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1396,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1410,7 +1347,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1424,7 +1361,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>22</v>
@@ -1438,7 +1375,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>36</v>
@@ -1462,16 +1399,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/app/modules/common/FEAT/F16/download_input.xlsx
+++ b/app/modules/common/FEAT/F16/download_input.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Parameter for Powerplants" sheetId="1" r:id="rId1"/>
+    <sheet name="Heat Generators" sheetId="1" r:id="rId1"/>
     <sheet name="prices and emmision factors" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -105,6 +105,9 @@
     <t>CHP CC gas turbine/ back-pressure turbine gas/oil</t>
   </si>
   <si>
+    <t>Solar Thermal</t>
+  </si>
+  <si>
     <t>energy carrier</t>
   </si>
   <si>
@@ -148,6 +151,9 @@
   </si>
   <si>
     <t>wood pellets</t>
+  </si>
+  <si>
+    <t>radiation</t>
   </si>
   <si>
     <t>CO2 Price</t>
@@ -517,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -560,7 +566,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>1.03</v>
@@ -592,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0.85</v>
@@ -624,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0.87</v>
@@ -656,7 +662,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0.85</v>
@@ -688,7 +694,7 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0.98</v>
@@ -720,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0.99</v>
@@ -752,7 +758,7 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -784,7 +790,7 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -816,7 +822,7 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -848,7 +854,7 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>1.7</v>
@@ -863,7 +869,7 @@
         <v>2000</v>
       </c>
       <c r="H11">
-        <v>0.8999999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="I11">
         <v>25</v>
@@ -880,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0.58</v>
@@ -912,7 +918,7 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0.64</v>
@@ -944,7 +950,7 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0.62</v>
@@ -976,7 +982,7 @@
         <v>22</v>
       </c>
       <c r="C15">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0.64</v>
@@ -1008,7 +1014,7 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0.62</v>
@@ -1040,7 +1046,7 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0.62</v>
@@ -1072,7 +1078,7 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0.45</v>
@@ -1104,7 +1110,7 @@
         <v>26</v>
       </c>
       <c r="C19">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0.45</v>
@@ -1136,7 +1142,7 @@
         <v>27</v>
       </c>
       <c r="C20">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0.35</v>
@@ -1168,7 +1174,7 @@
         <v>28</v>
       </c>
       <c r="C21">
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0.45</v>
@@ -1190,6 +1196,38 @@
       </c>
       <c r="J21">
         <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.8</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>550000</v>
+      </c>
+      <c r="G22">
+        <v>10000</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1199,7 +1237,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1207,13 +1245,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1221,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1235,10 +1273,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>0.8</v>
@@ -1249,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>62</v>
@@ -1263,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5">
         <v>47</v>
@@ -1277,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -1291,7 +1326,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7">
         <v>22</v>
@@ -1305,7 +1340,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -1319,7 +1354,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -1333,7 +1368,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1347,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1361,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>22</v>
@@ -1375,13 +1410,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13">
         <v>36</v>
       </c>
       <c r="D13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1399,16 +1448,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/app/modules/common/FEAT/F16/download_input.xlsx
+++ b/app/modules/common/FEAT/F16/download_input.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Heat Generators" sheetId="1" r:id="rId1"/>
     <sheet name="prices and emmision factors" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Heat Storages" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -166,6 +167,36 @@
   </si>
   <si>
     <t>Total Demand[ MWh]</t>
+  </si>
+  <si>
+    <t>Storage Capacity [MWh]</t>
+  </si>
+  <si>
+    <t>maximum turbining power  [MW]</t>
+  </si>
+  <si>
+    <t>maximum pumping power [MW]</t>
+  </si>
+  <si>
+    <t>pumping efficiency</t>
+  </si>
+  <si>
+    <t>turbining efficiency</t>
+  </si>
+  <si>
+    <t>Invesment costs for additional storage capacity  [€/MW]</t>
+  </si>
+  <si>
+    <t>Invesment costs for additional pumping power  [€/MW]</t>
+  </si>
+  <si>
+    <t>OPEX fix [€/MWa]</t>
+  </si>
+  <si>
+    <t>Life Time [a]</t>
+  </si>
+  <si>
+    <t>heat storage</t>
   </si>
 </sst>
 </file>
@@ -1480,4 +1511,84 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2">
+        <v>0.95</v>
+      </c>
+      <c r="G2">
+        <v>0.98</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2">
+        <v>250</v>
+      </c>
+      <c r="J2">
+        <v>10000</v>
+      </c>
+      <c r="K2">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>